--- a/data/mapdata_india_sanitation_states_new3.xlsx
+++ b/data/mapdata_india_sanitation_states_new3.xlsx
@@ -669,7 +669,7 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AG37"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1213,7 @@
         <v>44</v>
       </c>
       <c r="G7">
-        <v>1671.2810509317508</v>
+        <v>1671.2810509317501</v>
       </c>
       <c r="H7">
         <v>-52.732682679883943</v>
